--- a/script/Pr_temp_spreadsheets/05_00_ARC05_9_2.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_9_2.xlsx
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b9ca2ae2-45e1-464a-a04e-7c6798553faa}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c6068a3b-b996-45b7-be45-fc0f6eb80a19}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -1185,7 +1185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5c6981ee-cb28-48c3-8aea-efe33cf8129d}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dc577079-7439-41c9-a1df-c0d7620b7c3c}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
